--- a/data/trans_orig/P16A10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B020DA9-4B45-4520-92B5-EC3E8D91CC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E805E9C6-3581-460F-A42D-59FB1FF277C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89F56D31-5D26-4FF0-9999-EFFF805EB0A9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{15B70662-B161-45E6-8617-79AA3EF76AE3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="383">
   <si>
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,1120 +80,1114 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>7,16%</t>
+    <t>7,1%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
   </si>
   <si>
     <t>95,42%</t>
   </si>
   <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>4,6%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>95,4%</t>
   </si>
   <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>94,46%</t>
   </si>
   <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>93,93%</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80156AC6-44F1-4ABE-9357-C989B3C8EA88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A5077C-35C5-4490-997D-CC81B1319A77}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2370,7 +2364,7 @@
         <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -2379,13 +2373,13 @@
         <v>101293</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,13 +2394,13 @@
         <v>898307</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>942</v>
@@ -2418,10 +2412,10 @@
         <v>47</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1886</v>
@@ -2430,13 +2424,13 @@
         <v>1879541</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,13 +2498,13 @@
         <v>177307</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>172</v>
@@ -2519,13 +2513,13 @@
         <v>178944</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>356</v>
@@ -2534,13 +2528,13 @@
         <v>356251</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,16 +2546,16 @@
         <v>3029</v>
       </c>
       <c r="D20" s="7">
-        <v>3098218</v>
+        <v>3098219</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>3125</v>
@@ -2570,28 +2564,28 @@
         <v>3200254</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>6154</v>
       </c>
       <c r="N20" s="7">
-        <v>6298471</v>
+        <v>6298472</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,7 +2597,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2633,7 +2627,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2647,7 +2641,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2668,7 +2662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046ECAC3-6636-4697-B062-C2E525B87811}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D18D2D9-EA78-421F-8927-26B89A833371}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2685,7 +2679,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2792,13 +2786,13 @@
         <v>4521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2807,13 +2801,13 @@
         <v>4686</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2822,13 +2816,13 @@
         <v>9206</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2837,13 @@
         <v>111244</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>95</v>
@@ -2858,13 +2852,13 @@
         <v>107219</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
@@ -2873,13 +2867,13 @@
         <v>218464</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2941,13 @@
         <v>29076</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -2962,13 +2956,13 @@
         <v>34891</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
@@ -2977,13 +2971,13 @@
         <v>63967</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +2992,13 @@
         <v>556738</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>517</v>
@@ -3013,13 +3007,13 @@
         <v>549211</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>1041</v>
@@ -3028,13 +3022,13 @@
         <v>1105948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3096,13 @@
         <v>49553</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -3117,13 +3111,13 @@
         <v>50123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>91</v>
@@ -3132,13 +3126,13 @@
         <v>99676</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3147,13 @@
         <v>968394</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>891</v>
@@ -3168,13 +3162,13 @@
         <v>978835</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
         <v>1782</v>
@@ -3183,13 +3177,13 @@
         <v>1947229</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3251,13 @@
         <v>36225</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -3272,13 +3266,13 @@
         <v>28160</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -3287,13 +3281,13 @@
         <v>64385</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3302,13 @@
         <v>720313</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H14" s="7">
         <v>677</v>
@@ -3323,13 +3317,13 @@
         <v>747128</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>1332</v>
@@ -3338,13 +3332,13 @@
         <v>1467441</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3406,13 @@
         <v>61113</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -3427,13 +3421,13 @@
         <v>52601</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -3445,10 +3439,10 @@
         <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3457,13 @@
         <v>882826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
         <v>950</v>
@@ -3478,13 +3472,13 @@
         <v>996316</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="M17" s="7">
         <v>1800</v>
@@ -3496,10 +3490,10 @@
         <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3561,13 @@
         <v>180488</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H19" s="7">
         <v>159</v>
@@ -3582,13 +3576,13 @@
         <v>170460</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="M19" s="7">
         <v>325</v>
@@ -3597,13 +3591,13 @@
         <v>350949</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3612,13 @@
         <v>3239515</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>3130</v>
@@ -3633,13 +3627,13 @@
         <v>3378710</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M20" s="7">
         <v>6167</v>
@@ -3648,13 +3642,13 @@
         <v>6618223</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,7 +3704,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3731,7 +3725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49C69CA-12B0-4392-BF75-2E7646702FBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FDCE1F-59AC-41D5-AEC3-BB236EC8B6D2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3748,7 +3742,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3855,13 +3849,13 @@
         <v>5382</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3870,13 +3864,13 @@
         <v>6316</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3885,13 +3879,13 @@
         <v>11698</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3900,13 @@
         <v>111164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H5" s="7">
         <v>110</v>
@@ -3921,13 +3915,13 @@
         <v>107044</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M5" s="7">
         <v>217</v>
@@ -3936,13 +3930,13 @@
         <v>218208</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4004,13 @@
         <v>38304</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4025,13 +4019,13 @@
         <v>39076</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -4040,13 +4034,13 @@
         <v>77380</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4055,13 @@
         <v>519950</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -4076,13 +4070,13 @@
         <v>520403</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>1017</v>
@@ -4091,13 +4085,13 @@
         <v>1040353</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,10 +4162,10 @@
         <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4180,13 +4174,13 @@
         <v>53127</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>71</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -4198,10 +4192,10 @@
         <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,10 +4213,10 @@
         <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
@@ -4231,13 +4225,13 @@
         <v>989786</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>1825</v>
@@ -4249,10 +4243,10 @@
         <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4314,13 @@
         <v>47043</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -4335,13 +4329,13 @@
         <v>44696</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -4350,13 +4344,13 @@
         <v>91739</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4365,13 @@
         <v>712509</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>697</v>
@@ -4386,13 +4380,13 @@
         <v>740315</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>1347</v>
@@ -4401,10 +4395,10 @@
         <v>1452824</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>269</v>
@@ -4478,10 +4472,10 @@
         <v>270</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -4490,7 +4484,7 @@
         <v>47768</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>273</v>
@@ -4508,7 +4502,7 @@
         <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>276</v>
@@ -4532,7 +4526,7 @@
         <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>279</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>920</v>
@@ -4541,7 +4535,7 @@
         <v>996011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>43</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>280</v>
@@ -4562,7 +4556,7 @@
         <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4639,13 @@
         <v>190984</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M19" s="7">
         <v>365</v>
@@ -4666,7 +4660,7 @@
         <v>290</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>291</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4675,13 @@
         <v>3191250</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H20" s="7">
         <v>3176</v>
@@ -4696,13 +4690,13 @@
         <v>3353558</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M20" s="7">
         <v>6204</v>
@@ -4711,13 +4705,13 @@
         <v>6544808</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,7 +4767,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4794,7 +4788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6202D570-A2E1-45AF-8FB4-6945DBE1FCFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB30EE5-35DA-4160-867F-AE4DD397F964}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4811,7 +4805,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4918,13 +4912,13 @@
         <v>6070</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -4933,13 +4927,13 @@
         <v>11515</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -4948,13 +4942,13 @@
         <v>17585</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4963,13 @@
         <v>95912</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>217</v>
@@ -4984,13 +4978,13 @@
         <v>119218</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M5" s="7">
         <v>326</v>
@@ -4999,13 +4993,13 @@
         <v>215130</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,13 +5067,13 @@
         <v>38565</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -5088,13 +5082,13 @@
         <v>39925</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M7" s="7">
         <v>134</v>
@@ -5103,13 +5097,13 @@
         <v>78490</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5118,13 @@
         <v>511258</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="H8" s="7">
         <v>920</v>
@@ -5139,13 +5133,13 @@
         <v>553037</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>329</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>1474</v>
@@ -5154,13 +5148,13 @@
         <v>1064295</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,13 +5222,13 @@
         <v>41365</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -5243,13 +5237,13 @@
         <v>50971</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -5258,13 +5252,13 @@
         <v>92336</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,13 +5273,13 @@
         <v>997883</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H11" s="7">
         <v>1430</v>
@@ -5294,13 +5288,13 @@
         <v>1007790</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M11" s="7">
         <v>2335</v>
@@ -5309,13 +5303,13 @@
         <v>2005673</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5377,13 @@
         <v>49997</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -5398,13 +5392,13 @@
         <v>33931</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -5413,13 +5407,13 @@
         <v>83928</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +5428,13 @@
         <v>677704</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="H14" s="7">
         <v>993</v>
@@ -5449,13 +5443,13 @@
         <v>839815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>1612</v>
@@ -5464,13 +5458,13 @@
         <v>1517519</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5532,13 @@
         <v>62956</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>354</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -5553,13 +5547,13 @@
         <v>62997</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>193</v>
@@ -5568,13 +5562,13 @@
         <v>125952</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5583,13 @@
         <v>902447</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
         <v>1454</v>
@@ -5604,13 +5598,13 @@
         <v>1083306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>2372</v>
@@ -5619,13 +5613,13 @@
         <v>1985754</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5687,13 @@
         <v>198953</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>374</v>
+        <v>290</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H19" s="7">
         <v>345</v>
@@ -5708,13 +5702,13 @@
         <v>199339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>52</v>
+        <v>373</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M19" s="7">
         <v>615</v>
@@ -5723,13 +5717,13 @@
         <v>398292</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>207</v>
+        <v>375</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>377</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,13 +5738,13 @@
         <v>3185205</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>381</v>
+        <v>297</v>
       </c>
       <c r="H20" s="7">
         <v>5014</v>
@@ -5759,13 +5753,13 @@
         <v>3603166</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>380</v>
       </c>
       <c r="M20" s="7">
         <v>8119</v>
@@ -5774,13 +5768,13 @@
         <v>6788370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>381</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>384</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,7 +5830,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E805E9C6-3581-460F-A42D-59FB1FF277C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88332C47-0B41-46BB-8203-F973AB1AA1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{15B70662-B161-45E6-8617-79AA3EF76AE3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0CDA90C-36B1-4D0D-9F31-96F0A32ACC35}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="379">
   <si>
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,25 +80,25 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>7,1%</t>
+    <t>7,31%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>97,33%</t>
   </si>
   <si>
-    <t>92,9%</t>
+    <t>92,69%</t>
   </si>
   <si>
     <t>99,13%</t>
@@ -116,1066 +116,1054 @@
     <t>93,32%</t>
   </si>
   <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>95,11%</t>
   </si>
   <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
     <t>4,69%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>92,8%</t>
   </si>
   <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>94,61%</t>
   </si>
   <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>95,6%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>94,88%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
   </si>
   <si>
     <t>94,15%</t>
@@ -1599,7 +1587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A5077C-35C5-4490-997D-CC81B1319A77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD59E0A-1297-4DD2-9BE7-DFD846AFDF31}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2209,7 +2197,7 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -2218,13 +2206,13 @@
         <v>70490</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,13 +2227,13 @@
         <v>641680</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>663</v>
@@ -2254,13 +2242,13 @@
         <v>650180</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1267</v>
@@ -2269,13 +2257,13 @@
         <v>1291860</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,7 +2319,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2343,13 +2331,13 @@
         <v>43915</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -2361,10 +2349,10 @@
         <v>38</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -2373,13 +2361,13 @@
         <v>101293</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2382,13 @@
         <v>898307</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>942</v>
@@ -2412,7 +2400,7 @@
         <v>47</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>99</v>
@@ -2501,7 +2489,7 @@
         <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>104</v>
@@ -2519,7 +2507,7 @@
         <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>356</v>
@@ -2528,13 +2516,13 @@
         <v>356251</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,16 +2534,16 @@
         <v>3029</v>
       </c>
       <c r="D20" s="7">
-        <v>3098219</v>
+        <v>3098218</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H20" s="7">
         <v>3125</v>
@@ -2564,13 +2552,13 @@
         <v>3200254</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>6154</v>
@@ -2579,13 +2567,13 @@
         <v>6298472</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,7 +2585,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2641,7 +2629,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2662,7 +2650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D18D2D9-EA78-421F-8927-26B89A833371}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB2C4F7-385D-44FD-A8B1-BEC64FD8BBA2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2679,7 +2667,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2786,13 +2774,13 @@
         <v>4521</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2801,13 +2789,13 @@
         <v>4686</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2816,13 +2804,13 @@
         <v>9206</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,13 +2825,13 @@
         <v>111244</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>95</v>
@@ -2852,7 +2840,7 @@
         <v>107219</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>132</v>
@@ -2956,13 +2944,13 @@
         <v>34891</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
@@ -2971,13 +2959,13 @@
         <v>63967</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2980,13 @@
         <v>556738</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>517</v>
@@ -3007,13 +2995,13 @@
         <v>549211</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>1041</v>
@@ -3022,13 +3010,13 @@
         <v>1105948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3084,13 @@
         <v>49553</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -3111,13 +3099,13 @@
         <v>50123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>91</v>
@@ -3126,13 +3114,13 @@
         <v>99676</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3135,13 @@
         <v>968394</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H11" s="7">
         <v>891</v>
@@ -3162,13 +3150,13 @@
         <v>978835</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M11" s="7">
         <v>1782</v>
@@ -3177,13 +3165,13 @@
         <v>1947229</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3239,13 @@
         <v>36225</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -3266,13 +3254,13 @@
         <v>28160</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -3281,13 +3269,13 @@
         <v>64385</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3290,13 @@
         <v>720313</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7">
         <v>677</v>
@@ -3317,13 +3305,13 @@
         <v>747128</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>1332</v>
@@ -3332,13 +3320,13 @@
         <v>1467441</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,7 +3382,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3406,13 +3394,13 @@
         <v>61113</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -3421,13 +3409,13 @@
         <v>52601</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -3439,10 +3427,10 @@
         <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3445,13 @@
         <v>882826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="H17" s="7">
         <v>950</v>
@@ -3472,13 +3460,13 @@
         <v>996316</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M17" s="7">
         <v>1800</v>
@@ -3490,7 +3478,7 @@
         <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>194</v>
@@ -3561,10 +3549,10 @@
         <v>180488</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>196</v>
@@ -3612,13 +3600,13 @@
         <v>3239515</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>3130</v>
@@ -3704,7 +3692,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3725,7 +3713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FDCE1F-59AC-41D5-AEC3-BB236EC8B6D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BE4486-4506-422E-9D1F-64D39ECD8C9B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3864,13 +3852,13 @@
         <v>6316</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3879,13 +3867,13 @@
         <v>11698</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3888,13 @@
         <v>111164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H5" s="7">
         <v>110</v>
@@ -3915,13 +3903,13 @@
         <v>107044</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7">
         <v>217</v>
@@ -3930,13 +3918,13 @@
         <v>218208</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +3992,13 @@
         <v>38304</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4019,13 +4007,13 @@
         <v>39076</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -4034,13 +4022,13 @@
         <v>77380</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4043,13 @@
         <v>519950</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -4070,13 +4058,13 @@
         <v>520403</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>1017</v>
@@ -4085,13 +4073,13 @@
         <v>1040353</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,10 +4150,10 @@
         <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4174,13 +4162,13 @@
         <v>53127</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -4192,10 +4180,10 @@
         <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,10 +4201,10 @@
         <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
@@ -4225,13 +4213,13 @@
         <v>989786</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>1825</v>
@@ -4243,10 +4231,10 @@
         <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4302,13 @@
         <v>47043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -4329,13 +4317,13 @@
         <v>44696</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -4344,13 +4332,13 @@
         <v>91739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4353,13 @@
         <v>712509</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>697</v>
@@ -4380,13 +4368,13 @@
         <v>740315</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>1347</v>
@@ -4395,13 +4383,13 @@
         <v>1452824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,7 +4445,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4469,13 +4457,13 @@
         <v>53952</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>275</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>271</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -4484,13 +4472,13 @@
         <v>47768</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -4499,13 +4487,13 @@
         <v>101720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>141</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4508,13 @@
         <v>883615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>920</v>
@@ -4535,13 +4523,13 @@
         <v>996011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
         <v>1798</v>
@@ -4550,13 +4538,13 @@
         <v>1879626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4612,13 @@
         <v>203100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H19" s="7">
         <v>162</v>
@@ -4639,13 +4627,13 @@
         <v>190984</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>288</v>
+        <v>32</v>
       </c>
       <c r="M19" s="7">
         <v>365</v>
@@ -4654,13 +4642,13 @@
         <v>394084</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4663,13 @@
         <v>3191250</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H20" s="7">
         <v>3176</v>
@@ -4690,13 +4678,13 @@
         <v>3353558</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>178</v>
+        <v>300</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>6204</v>
@@ -4705,13 +4693,13 @@
         <v>6544808</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>302</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,7 +4755,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4788,7 +4776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB30EE5-35DA-4160-867F-AE4DD397F964}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932E5DE8-0D62-4070-94C6-8F90F10C42A5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4805,7 +4793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4912,13 +4900,13 @@
         <v>6070</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -4927,13 +4915,13 @@
         <v>11515</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -4942,13 +4930,13 @@
         <v>17585</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4951,13 @@
         <v>95912</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>308</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>217</v>
@@ -4978,13 +4966,13 @@
         <v>119218</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>326</v>
@@ -4993,13 +4981,13 @@
         <v>215130</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5055,13 @@
         <v>38565</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -5082,13 +5070,13 @@
         <v>39925</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>134</v>
@@ -5097,13 +5085,13 @@
         <v>78490</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5106,13 @@
         <v>511258</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H8" s="7">
         <v>920</v>
@@ -5133,13 +5121,13 @@
         <v>553037</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>300</v>
       </c>
       <c r="M8" s="7">
         <v>1474</v>
@@ -5148,13 +5136,13 @@
         <v>1064295</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,13 +5210,13 @@
         <v>41365</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -5237,13 +5225,13 @@
         <v>50971</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -5252,13 +5240,13 @@
         <v>92336</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>334</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,13 +5261,13 @@
         <v>997883</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H11" s="7">
         <v>1430</v>
@@ -5288,13 +5276,13 @@
         <v>1007790</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M11" s="7">
         <v>2335</v>
@@ -5303,13 +5291,13 @@
         <v>2005673</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>345</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>342</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5365,13 @@
         <v>49997</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>343</v>
+        <v>220</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -5392,13 +5380,13 @@
         <v>33931</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -5407,13 +5395,13 @@
         <v>83928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5416,13 @@
         <v>677704</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>348</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H14" s="7">
         <v>993</v>
@@ -5443,13 +5431,13 @@
         <v>839815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M14" s="7">
         <v>1612</v>
@@ -5458,10 +5446,10 @@
         <v>1517519</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>134</v>
@@ -5520,7 +5508,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5532,13 +5520,13 @@
         <v>62956</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -5547,13 +5535,13 @@
         <v>62997</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>193</v>
@@ -5562,13 +5550,13 @@
         <v>125952</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>361</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5571,13 @@
         <v>902447</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>362</v>
+        <v>256</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H17" s="7">
         <v>1454</v>
@@ -5598,13 +5586,13 @@
         <v>1083306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M17" s="7">
         <v>2372</v>
@@ -5613,13 +5601,13 @@
         <v>1985754</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>369</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5675,13 @@
         <v>198953</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>290</v>
+        <v>366</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H19" s="7">
         <v>345</v>
@@ -5702,13 +5690,13 @@
         <v>199339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M19" s="7">
         <v>615</v>
@@ -5717,13 +5705,13 @@
         <v>398292</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,13 +5726,13 @@
         <v>3185205</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>297</v>
+        <v>374</v>
       </c>
       <c r="H20" s="7">
         <v>5014</v>
@@ -5753,13 +5741,13 @@
         <v>3603166</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M20" s="7">
         <v>8119</v>
@@ -5768,10 +5756,10 @@
         <v>6788370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>208</v>
@@ -5830,7 +5818,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88332C47-0B41-46BB-8203-F973AB1AA1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E2255C-010F-4F00-B3C3-A8CEE9770737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0CDA90C-36B1-4D0D-9F31-96F0A32ACC35}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{936425B6-DCB9-4F7B-930E-308D51B0CD7F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="385">
   <si>
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,67%</t>
@@ -80,25 +80,25 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>7,31%</t>
+    <t>7,16%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>97,33%</t>
   </si>
   <si>
-    <t>92,69%</t>
+    <t>92,84%</t>
   </si>
   <si>
     <t>99,13%</t>
@@ -116,19 +116,19 @@
     <t>93,32%</t>
   </si>
   <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1042 +140,1060 @@
     <t>6,16%</t>
   </si>
   <si>
-    <t>4,44%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>94,12%</t>
   </si>
   <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD59E0A-1297-4DD2-9BE7-DFD846AFDF31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96EA5BA-D896-43F3-9FBC-5B91DAB96614}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2197,7 +2215,7 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -2206,13 +2224,13 @@
         <v>70490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2245,13 @@
         <v>641680</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>663</v>
@@ -2242,13 +2260,13 @@
         <v>650180</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1267</v>
@@ -2257,13 +2275,13 @@
         <v>1291860</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,7 +2337,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2331,13 +2349,13 @@
         <v>43915</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -2349,10 +2367,10 @@
         <v>38</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -2361,13 +2379,13 @@
         <v>101293</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2400,13 @@
         <v>898307</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>942</v>
@@ -2400,10 +2418,10 @@
         <v>47</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1886</v>
@@ -2412,13 +2430,13 @@
         <v>1879541</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,13 +2504,13 @@
         <v>177307</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>172</v>
@@ -2501,13 +2519,13 @@
         <v>178944</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>356</v>
@@ -2516,13 +2534,13 @@
         <v>356251</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2555,13 @@
         <v>3098218</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>3125</v>
@@ -2552,28 +2570,28 @@
         <v>3200254</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>6154</v>
       </c>
       <c r="N20" s="7">
-        <v>6298472</v>
+        <v>6298471</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,7 +2633,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2629,7 +2647,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +2668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB2C4F7-385D-44FD-A8B1-BEC64FD8BBA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD480BB-8078-489B-96D8-25E961391377}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2667,7 +2685,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2774,13 +2792,13 @@
         <v>4521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2789,13 +2807,13 @@
         <v>4686</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2804,13 +2822,13 @@
         <v>9206</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2843,13 @@
         <v>111244</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>95</v>
@@ -2840,13 +2858,13 @@
         <v>107219</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
@@ -2855,13 +2873,13 @@
         <v>218464</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2947,13 @@
         <v>29076</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -2944,13 +2962,13 @@
         <v>34891</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
@@ -2959,13 +2977,13 @@
         <v>63967</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2998,13 @@
         <v>556738</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>517</v>
@@ -2995,13 +3013,13 @@
         <v>549211</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>1041</v>
@@ -3010,13 +3028,13 @@
         <v>1105948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,13 +3102,13 @@
         <v>49553</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -3099,13 +3117,13 @@
         <v>50123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>91</v>
@@ -3114,13 +3132,13 @@
         <v>99676</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3153,13 @@
         <v>968394</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>891</v>
@@ -3150,13 +3168,13 @@
         <v>978835</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>1782</v>
@@ -3165,13 +3183,13 @@
         <v>1947229</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3257,13 @@
         <v>36225</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -3254,13 +3272,13 @@
         <v>28160</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -3269,13 +3287,13 @@
         <v>64385</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3308,13 @@
         <v>720313</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>677</v>
@@ -3305,13 +3323,13 @@
         <v>747128</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>1332</v>
@@ -3320,13 +3338,13 @@
         <v>1467441</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,7 +3400,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3394,13 +3412,13 @@
         <v>61113</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -3409,13 +3427,13 @@
         <v>52601</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -3427,10 +3445,10 @@
         <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3463,13 @@
         <v>882826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H17" s="7">
         <v>950</v>
@@ -3460,13 +3478,13 @@
         <v>996316</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>1800</v>
@@ -3478,10 +3496,10 @@
         <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3567,13 @@
         <v>180488</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H19" s="7">
         <v>159</v>
@@ -3564,13 +3582,13 @@
         <v>170460</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="M19" s="7">
         <v>325</v>
@@ -3579,13 +3597,13 @@
         <v>350949</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3618,13 @@
         <v>3239515</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H20" s="7">
         <v>3130</v>
@@ -3615,13 +3633,13 @@
         <v>3378710</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>6167</v>
@@ -3630,13 +3648,13 @@
         <v>6618223</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,7 +3710,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3713,7 +3731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BE4486-4506-422E-9D1F-64D39ECD8C9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8091BB1-A52E-4432-A8A4-6094953DB0FB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3730,7 +3748,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3837,13 +3855,13 @@
         <v>5382</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3852,13 +3870,13 @@
         <v>6316</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3867,13 +3885,13 @@
         <v>11698</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3906,13 @@
         <v>111164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H5" s="7">
         <v>110</v>
@@ -3903,13 +3921,13 @@
         <v>107044</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>217</v>
@@ -3918,13 +3936,13 @@
         <v>218208</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +4010,13 @@
         <v>38304</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4007,13 +4025,13 @@
         <v>39076</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -4022,13 +4040,13 @@
         <v>77380</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4061,13 @@
         <v>519950</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -4058,13 +4076,13 @@
         <v>520403</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>1017</v>
@@ -4073,13 +4091,13 @@
         <v>1040353</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4180,13 @@
         <v>53127</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -4180,10 +4198,10 @@
         <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,10 +4219,10 @@
         <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
@@ -4213,13 +4231,13 @@
         <v>989786</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="M11" s="7">
         <v>1825</v>
@@ -4231,10 +4249,10 @@
         <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,13 +4320,13 @@
         <v>47043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -4317,13 +4335,13 @@
         <v>44696</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -4332,13 +4350,13 @@
         <v>91739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4371,13 @@
         <v>712509</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>697</v>
@@ -4368,13 +4386,13 @@
         <v>740315</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>1347</v>
@@ -4383,13 +4401,13 @@
         <v>1452824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,7 +4463,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4457,13 +4475,13 @@
         <v>53952</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -4472,13 +4490,13 @@
         <v>47768</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>33</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -4487,13 +4505,13 @@
         <v>101720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4526,13 @@
         <v>883615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
         <v>920</v>
@@ -4523,13 +4541,13 @@
         <v>996011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>43</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>1798</v>
@@ -4538,13 +4556,13 @@
         <v>1879626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4630,13 @@
         <v>203100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H19" s="7">
         <v>162</v>
@@ -4627,13 +4645,13 @@
         <v>190984</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>195</v>
+        <v>288</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>32</v>
+        <v>276</v>
       </c>
       <c r="M19" s="7">
         <v>365</v>
@@ -4642,13 +4660,13 @@
         <v>394084</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4681,13 @@
         <v>3191250</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
         <v>3176</v>
@@ -4678,13 +4696,13 @@
         <v>3353558</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
         <v>6204</v>
@@ -4693,13 +4711,13 @@
         <v>6544808</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,7 +4773,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4776,7 +4794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932E5DE8-0D62-4070-94C6-8F90F10C42A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9790E54-1C6F-418B-ADE6-6AE751356C59}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4793,7 +4811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4900,13 +4918,13 @@
         <v>6070</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>155</v>
+        <v>301</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -4915,13 +4933,13 @@
         <v>11515</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -4930,13 +4948,13 @@
         <v>17585</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,13 +4969,13 @@
         <v>95912</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>217</v>
@@ -4966,13 +4984,13 @@
         <v>119218</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>326</v>
@@ -4981,13 +4999,13 @@
         <v>215130</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,13 +5073,13 @@
         <v>38565</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -5070,13 +5088,13 @@
         <v>39925</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M7" s="7">
         <v>134</v>
@@ -5085,13 +5103,13 @@
         <v>78490</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5124,13 @@
         <v>511258</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="H8" s="7">
         <v>920</v>
@@ -5121,13 +5139,13 @@
         <v>553037</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="M8" s="7">
         <v>1474</v>
@@ -5136,13 +5154,13 @@
         <v>1064295</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,7 +5249,7 @@
         <v>337</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -5240,13 +5258,13 @@
         <v>92336</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,10 +5297,10 @@
         <v>343</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M11" s="7">
         <v>2335</v>
@@ -5291,13 +5309,13 @@
         <v>2005673</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,13 +5383,13 @@
         <v>49997</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>348</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -5380,13 +5398,13 @@
         <v>33931</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>351</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -5395,13 +5413,13 @@
         <v>83928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>125</v>
+        <v>352</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,13 +5434,13 @@
         <v>677704</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>354</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H14" s="7">
         <v>993</v>
@@ -5431,13 +5449,13 @@
         <v>839815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="M14" s="7">
         <v>1612</v>
@@ -5446,13 +5464,13 @@
         <v>1517519</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>134</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,7 +5526,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5520,13 +5538,13 @@
         <v>62956</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -5535,13 +5553,13 @@
         <v>62997</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>357</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>193</v>
@@ -5550,13 +5568,13 @@
         <v>125952</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>59</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,13 +5589,13 @@
         <v>902447</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>256</v>
+        <v>367</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>1454</v>
@@ -5586,13 +5604,13 @@
         <v>1083306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>362</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
         <v>2372</v>
@@ -5601,13 +5619,13 @@
         <v>1985754</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5693,13 @@
         <v>198953</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="H19" s="7">
         <v>345</v>
@@ -5690,13 +5708,13 @@
         <v>199339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>368</v>
+        <v>52</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="M19" s="7">
         <v>615</v>
@@ -5705,13 +5723,13 @@
         <v>398292</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>370</v>
+        <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>200</v>
+        <v>377</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5744,13 @@
         <v>3185205</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="H20" s="7">
         <v>5014</v>
@@ -5741,13 +5759,13 @@
         <v>3603166</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>376</v>
+        <v>62</v>
       </c>
       <c r="M20" s="7">
         <v>8119</v>
@@ -5756,13 +5774,13 @@
         <v>6788370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>377</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,7 +5836,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E2255C-010F-4F00-B3C3-A8CEE9770737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36BB40EA-07F7-459F-BF3F-053B527DB522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{936425B6-DCB9-4F7B-930E-308D51B0CD7F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DD230D55-73BF-4483-9273-E703DD55C039}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="320">
   <si>
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,1132 +68,937 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>5,14%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>94,86%</t>
   </si>
   <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>95,54%</t>
   </si>
 </sst>
 </file>
@@ -1605,8 +1410,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96EA5BA-D896-43F3-9FBC-5B91DAB96614}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3280B6BC-64EF-4038-AB3F-C724F87E3273}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1723,10 +1528,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7">
-        <v>3084</v>
+        <v>38655</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1738,10 +1543,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I4" s="7">
-        <v>7531</v>
+        <v>35657</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1753,10 +1558,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="N4" s="7">
-        <v>10615</v>
+        <v>74311</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1774,10 +1579,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>641</v>
       </c>
       <c r="D5" s="7">
-        <v>112274</v>
+        <v>654339</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1789,10 +1594,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>120</v>
+        <v>661</v>
       </c>
       <c r="I5" s="7">
-        <v>105224</v>
+        <v>652694</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1804,10 +1609,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>222</v>
+        <v>1302</v>
       </c>
       <c r="N5" s="7">
-        <v>217498</v>
+        <v>1307034</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1825,10 +1630,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>692994</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1840,10 +1645,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1855,10 +1660,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381345</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1878,10 +1683,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7">
-        <v>35571</v>
+        <v>57908</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1893,10 +1698,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I7" s="7">
-        <v>28126</v>
+        <v>52249</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1908,10 +1713,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="N7" s="7">
-        <v>63697</v>
+        <v>110157</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1929,10 +1734,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>539</v>
+        <v>840</v>
       </c>
       <c r="D8" s="7">
-        <v>542065</v>
+        <v>903892</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1944,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>541</v>
+        <v>859</v>
       </c>
       <c r="I8" s="7">
-        <v>547470</v>
+        <v>916144</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1959,10 +1764,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1080</v>
+        <v>1699</v>
       </c>
       <c r="N8" s="7">
-        <v>1089535</v>
+        <v>1820036</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1980,10 +1785,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>577636</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1995,10 +1800,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2010,10 +1815,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153232</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2033,10 +1838,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7">
-        <v>57908</v>
+        <v>36829</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2048,10 +1853,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>52249</v>
+        <v>33661</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2063,10 +1868,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="N10" s="7">
-        <v>110157</v>
+        <v>70490</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2084,10 +1889,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>840</v>
+        <v>604</v>
       </c>
       <c r="D11" s="7">
-        <v>903892</v>
+        <v>641680</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2099,10 +1904,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>859</v>
+        <v>663</v>
       </c>
       <c r="I11" s="7">
-        <v>916144</v>
+        <v>650180</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2114,10 +1919,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1699</v>
+        <v>1267</v>
       </c>
       <c r="N11" s="7">
-        <v>1820036</v>
+        <v>1291860</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2135,10 +1940,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2150,10 +1955,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2165,10 +1970,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2188,10 +1993,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>36829</v>
+        <v>43915</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2203,10 +2008,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I13" s="7">
-        <v>33661</v>
+        <v>57378</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2218,10 +2023,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="N13" s="7">
-        <v>70490</v>
+        <v>101293</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2239,10 +2044,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>604</v>
+        <v>944</v>
       </c>
       <c r="D14" s="7">
-        <v>641680</v>
+        <v>898307</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2254,10 +2059,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>663</v>
+        <v>942</v>
       </c>
       <c r="I14" s="7">
-        <v>650180</v>
+        <v>981234</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2269,10 +2074,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1267</v>
+        <v>1886</v>
       </c>
       <c r="N14" s="7">
-        <v>1291860</v>
+        <v>1879541</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2290,10 +2095,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2305,10 +2110,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2320,10 +2125,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2337,34 +2142,34 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="D16" s="7">
-        <v>43915</v>
+        <v>177307</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>172</v>
+      </c>
+      <c r="I16" s="7">
+        <v>178944</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="H16" s="7">
-        <v>55</v>
-      </c>
-      <c r="I16" s="7">
-        <v>57378</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>92</v>
@@ -2373,10 +2178,10 @@
         <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>105</v>
+        <v>356</v>
       </c>
       <c r="N16" s="7">
-        <v>101293</v>
+        <v>356251</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -2394,10 +2199,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>944</v>
+        <v>3029</v>
       </c>
       <c r="D17" s="7">
-        <v>898307</v>
+        <v>3098218</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2409,34 +2214,34 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>942</v>
+        <v>3125</v>
       </c>
       <c r="I17" s="7">
-        <v>981234</v>
+        <v>3200253</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1886</v>
+        <v>6154</v>
       </c>
       <c r="N17" s="7">
-        <v>1879541</v>
+        <v>6298471</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,10 +2250,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3275525</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2460,10 +2265,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2475,10 +2280,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6654722</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2491,171 +2296,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>184</v>
-      </c>
-      <c r="D19" s="7">
-        <v>177307</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>172</v>
-      </c>
-      <c r="I19" s="7">
-        <v>178944</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>356</v>
-      </c>
-      <c r="N19" s="7">
-        <v>356251</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3029</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3098218</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3125</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3200254</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6154</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6298471</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275525</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654722</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2668,8 +2317,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD480BB-8078-489B-96D8-25E961391377}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405C968A-2882-412E-BA38-C6E5D06480D8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2685,7 +2334,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2786,49 +2435,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7">
-        <v>4521</v>
+        <v>33597</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>4686</v>
+        <v>39577</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="N4" s="7">
-        <v>9206</v>
+        <v>73174</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,49 +2486,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>641</v>
+      </c>
+      <c r="D5" s="7">
+        <v>667982</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="7">
-        <v>111244</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>95</v>
+        <v>612</v>
       </c>
       <c r="I5" s="7">
-        <v>107219</v>
+        <v>656430</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>212</v>
+        <v>1253</v>
       </c>
       <c r="N5" s="7">
-        <v>218464</v>
+        <v>1324411</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,10 +2537,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>672</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>701579</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2903,10 +2552,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>649</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>696007</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2918,10 +2567,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1321</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1397585</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2941,49 +2590,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>29076</v>
+        <v>49553</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I7" s="7">
-        <v>34891</v>
+        <v>50123</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="N7" s="7">
-        <v>63967</v>
+        <v>99676</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,49 +2641,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>524</v>
+        <v>891</v>
       </c>
       <c r="D8" s="7">
-        <v>556738</v>
+        <v>968394</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
-        <v>517</v>
+        <v>891</v>
       </c>
       <c r="I8" s="7">
-        <v>549211</v>
+        <v>978835</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>1041</v>
+        <v>1782</v>
       </c>
       <c r="N8" s="7">
-        <v>1105948</v>
+        <v>1947229</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,10 +2692,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>550</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>585814</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3058,10 +2707,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>550</v>
+        <v>937</v>
       </c>
       <c r="I9" s="7">
-        <v>584102</v>
+        <v>1028958</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3073,10 +2722,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1100</v>
+        <v>1873</v>
       </c>
       <c r="N9" s="7">
-        <v>1169915</v>
+        <v>2046905</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3096,49 +2745,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>49553</v>
+        <v>36225</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>50123</v>
+        <v>28160</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="M10" s="7">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="N10" s="7">
-        <v>99676</v>
+        <v>64385</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,49 +2796,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>891</v>
+        <v>655</v>
       </c>
       <c r="D11" s="7">
-        <v>968394</v>
+        <v>720313</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="H11" s="7">
-        <v>891</v>
+        <v>677</v>
       </c>
       <c r="I11" s="7">
-        <v>978835</v>
+        <v>747128</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="M11" s="7">
-        <v>1782</v>
+        <v>1332</v>
       </c>
       <c r="N11" s="7">
-        <v>1947229</v>
+        <v>1467441</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,10 +2847,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>756538</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3213,10 +2862,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>937</v>
+        <v>703</v>
       </c>
       <c r="I12" s="7">
-        <v>1028958</v>
+        <v>775288</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3228,10 +2877,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1873</v>
+        <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>2046905</v>
+        <v>1531826</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3251,49 +2900,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>36225</v>
+        <v>61113</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>28160</v>
+        <v>52601</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="N13" s="7">
-        <v>64385</v>
+        <v>113714</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,49 +2951,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>655</v>
+        <v>850</v>
       </c>
       <c r="D14" s="7">
-        <v>720313</v>
+        <v>882826</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7">
-        <v>677</v>
+        <v>950</v>
       </c>
       <c r="I14" s="7">
-        <v>747128</v>
+        <v>996316</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="M14" s="7">
-        <v>1332</v>
+        <v>1800</v>
       </c>
       <c r="N14" s="7">
-        <v>1467441</v>
+        <v>1879142</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,10 +3002,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>907</v>
       </c>
       <c r="D15" s="7">
-        <v>756538</v>
+        <v>943939</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3368,10 +3017,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>703</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>775288</v>
+        <v>1048917</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3383,10 +3032,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1391</v>
+        <v>1907</v>
       </c>
       <c r="N15" s="7">
-        <v>1531826</v>
+        <v>1992856</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3400,55 +3049,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="D16" s="7">
-        <v>61113</v>
+        <v>180488</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="H16" s="7">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="I16" s="7">
-        <v>52601</v>
+        <v>170460</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
-        <v>107</v>
+        <v>325</v>
       </c>
       <c r="N16" s="7">
-        <v>113714</v>
+        <v>350949</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,49 +3106,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>850</v>
+        <v>3037</v>
       </c>
       <c r="D17" s="7">
-        <v>882826</v>
+        <v>3239515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="H17" s="7">
-        <v>950</v>
+        <v>3130</v>
       </c>
       <c r="I17" s="7">
-        <v>996316</v>
+        <v>3378710</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
-        <v>1800</v>
+        <v>6167</v>
       </c>
       <c r="N17" s="7">
-        <v>1879142</v>
+        <v>6618224</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,10 +3157,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>907</v>
+        <v>3203</v>
       </c>
       <c r="D18" s="7">
-        <v>943939</v>
+        <v>3420003</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3523,10 +3172,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1000</v>
+        <v>3289</v>
       </c>
       <c r="I18" s="7">
-        <v>1048917</v>
+        <v>3549170</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3538,10 +3187,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1907</v>
+        <v>6492</v>
       </c>
       <c r="N18" s="7">
-        <v>1992856</v>
+        <v>6969173</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3554,171 +3203,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>166</v>
-      </c>
-      <c r="D19" s="7">
-        <v>180488</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H19" s="7">
-        <v>159</v>
-      </c>
-      <c r="I19" s="7">
-        <v>170460</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M19" s="7">
-        <v>325</v>
-      </c>
-      <c r="N19" s="7">
-        <v>350949</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3037</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3239515</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3130</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3378710</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6167</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6618223</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3203</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3420003</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3289</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3549170</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6492</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6969172</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3731,8 +3224,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8091BB1-A52E-4432-A8A4-6094953DB0FB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD82AB15-4244-404D-840C-3E3590C43055}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3748,7 +3241,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3849,49 +3342,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>5382</v>
+        <v>43686</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="I4" s="7">
-        <v>6316</v>
+        <v>45392</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="N4" s="7">
-        <v>11698</v>
+        <v>89078</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,49 +3393,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>107</v>
+        <v>608</v>
       </c>
       <c r="D5" s="7">
-        <v>111164</v>
+        <v>631114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>225</v>
+        <v>158</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
-        <v>110</v>
+        <v>626</v>
       </c>
       <c r="I5" s="7">
-        <v>107044</v>
+        <v>627447</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
-        <v>217</v>
+        <v>1234</v>
       </c>
       <c r="N5" s="7">
-        <v>218208</v>
+        <v>1258561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,10 +3444,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3966,10 +3459,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3981,10 +3474,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4004,49 +3497,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>59</v>
+      </c>
+      <c r="D7" s="7">
+        <v>58419</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="7">
-        <v>38304</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
+        <v>44</v>
+      </c>
+      <c r="I7" s="7">
+        <v>53127</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" s="7">
+        <v>103</v>
+      </c>
+      <c r="N7" s="7">
+        <v>111547</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="7">
-        <v>39076</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M7" s="7">
-        <v>73</v>
-      </c>
-      <c r="N7" s="7">
-        <v>77380</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,49 +3548,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>501</v>
+        <v>892</v>
       </c>
       <c r="D8" s="7">
-        <v>519950</v>
+        <v>964012</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
-        <v>516</v>
+        <v>933</v>
       </c>
       <c r="I8" s="7">
-        <v>520403</v>
+        <v>989786</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="M8" s="7">
-        <v>1017</v>
+        <v>1825</v>
       </c>
       <c r="N8" s="7">
-        <v>1040353</v>
+        <v>1953797</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>245</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,10 +3599,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4121,10 +3614,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4136,10 +3629,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4159,49 +3652,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>58419</v>
+        <v>47043</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>53127</v>
+        <v>44696</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="N10" s="7">
-        <v>111547</v>
+        <v>91739</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,49 +3703,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>892</v>
+        <v>650</v>
       </c>
       <c r="D11" s="7">
-        <v>964012</v>
+        <v>712509</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
-        <v>933</v>
+        <v>697</v>
       </c>
       <c r="I11" s="7">
-        <v>989786</v>
+        <v>740315</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
-        <v>1825</v>
+        <v>1347</v>
       </c>
       <c r="N11" s="7">
-        <v>1953797</v>
+        <v>1452824</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,10 +3754,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4276,10 +3769,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4291,10 +3784,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4314,49 +3807,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>47043</v>
+        <v>53952</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>44696</v>
+        <v>47768</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="N13" s="7">
-        <v>91739</v>
+        <v>101720</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,49 +3858,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>650</v>
+        <v>878</v>
       </c>
       <c r="D14" s="7">
-        <v>712509</v>
+        <v>883615</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
-        <v>697</v>
+        <v>920</v>
       </c>
       <c r="I14" s="7">
-        <v>740315</v>
+        <v>996011</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
-        <v>1347</v>
+        <v>1798</v>
       </c>
       <c r="N14" s="7">
-        <v>1452824</v>
+        <v>1879626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,10 +3909,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4431,10 +3924,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4446,10 +3939,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4463,55 +3956,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="D16" s="7">
-        <v>53952</v>
+        <v>203100</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="I16" s="7">
-        <v>47768</v>
+        <v>190984</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="M16" s="7">
-        <v>93</v>
+        <v>365</v>
       </c>
       <c r="N16" s="7">
-        <v>101720</v>
+        <v>394084</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,49 +4013,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>878</v>
+        <v>3028</v>
       </c>
       <c r="D17" s="7">
-        <v>883615</v>
+        <v>3191250</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
-        <v>920</v>
+        <v>3176</v>
       </c>
       <c r="I17" s="7">
-        <v>996011</v>
+        <v>3353558</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>43</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
-        <v>1798</v>
+        <v>6204</v>
       </c>
       <c r="N17" s="7">
-        <v>1879626</v>
+        <v>6544808</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,10 +4064,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4586,10 +4079,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4601,10 +4094,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4617,171 +4110,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>203</v>
-      </c>
-      <c r="D19" s="7">
-        <v>203100</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H19" s="7">
-        <v>162</v>
-      </c>
-      <c r="I19" s="7">
-        <v>190984</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="M19" s="7">
-        <v>365</v>
-      </c>
-      <c r="N19" s="7">
-        <v>394084</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3028</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3191250</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3176</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3353558</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6204</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6544808</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4794,8 +4131,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9790E54-1C6F-418B-ADE6-6AE751356C59}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBD7BC6-F2D4-4BAF-B37C-03009E388AB9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4811,7 +4148,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4912,49 +4249,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D4" s="7">
-        <v>6070</v>
+        <v>42497</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="I4" s="7">
-        <v>11515</v>
+        <v>46957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="N4" s="7">
-        <v>17585</v>
+        <v>89454</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,49 +4300,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>109</v>
+        <v>663</v>
       </c>
       <c r="D5" s="7">
-        <v>95912</v>
+        <v>592944</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>312</v>
+        <v>85</v>
       </c>
       <c r="H5" s="7">
-        <v>217</v>
+        <v>1137</v>
       </c>
       <c r="I5" s="7">
-        <v>119218</v>
+        <v>628795</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>313</v>
+        <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>315</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
-        <v>326</v>
+        <v>1800</v>
       </c>
       <c r="N5" s="7">
-        <v>215130</v>
+        <v>1221740</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5029,10 +4366,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5044,10 +4381,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1969</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1311194</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5067,49 +4404,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="7">
-        <v>38565</v>
+        <v>38444</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="H7" s="7">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I7" s="7">
-        <v>39925</v>
+        <v>45445</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="M7" s="7">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="N7" s="7">
-        <v>78490</v>
+        <v>83889</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,49 +4455,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>554</v>
+        <v>905</v>
       </c>
       <c r="D8" s="7">
-        <v>511258</v>
+        <v>1154420</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="H8" s="7">
-        <v>920</v>
+        <v>1430</v>
       </c>
       <c r="I8" s="7">
-        <v>553037</v>
+        <v>912050</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>328</v>
+        <v>165</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="M8" s="7">
-        <v>1474</v>
+        <v>2335</v>
       </c>
       <c r="N8" s="7">
-        <v>1064295</v>
+        <v>2066470</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>331</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,10 +4506,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5184,10 +4521,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>957495</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5199,10 +4536,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2479</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>2150359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5222,49 +4559,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" s="7">
-        <v>41365</v>
+        <v>46532</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>333</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>334</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="H10" s="7">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>50971</v>
+        <v>30390</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="M10" s="7">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>92336</v>
+        <v>76923</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,49 +4610,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>905</v>
+        <v>619</v>
       </c>
       <c r="D11" s="7">
-        <v>997883</v>
+        <v>657152</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>177</v>
       </c>
       <c r="H11" s="7">
-        <v>1430</v>
+        <v>993</v>
       </c>
       <c r="I11" s="7">
-        <v>1007790</v>
+        <v>902410</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="M11" s="7">
-        <v>2335</v>
+        <v>1612</v>
       </c>
       <c r="N11" s="7">
-        <v>2005673</v>
+        <v>1559561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>99</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,10 +4661,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>703684</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5339,10 +4676,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1058761</v>
+        <v>932800</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5354,10 +4691,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2479</v>
+        <v>1721</v>
       </c>
       <c r="N12" s="7">
-        <v>2098009</v>
+        <v>1636484</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5377,49 +4714,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D13" s="7">
-        <v>49997</v>
+        <v>59080</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="I13" s="7">
-        <v>33931</v>
+        <v>56738</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="N13" s="7">
-        <v>83928</v>
+        <v>115818</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,49 +4765,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>619</v>
+        <v>918</v>
       </c>
       <c r="D14" s="7">
-        <v>677704</v>
+        <v>867751</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
-        <v>993</v>
+        <v>1454</v>
       </c>
       <c r="I14" s="7">
-        <v>839815</v>
+        <v>1034636</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
-        <v>1612</v>
+        <v>2372</v>
       </c>
       <c r="N14" s="7">
-        <v>1517519</v>
+        <v>1902387</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,10 +4816,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727701</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5494,10 +4831,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873746</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5509,10 +4846,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1721</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1601447</v>
+        <v>2018205</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5526,55 +4863,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="D16" s="7">
-        <v>62956</v>
+        <v>186554</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
-        <v>105</v>
+        <v>345</v>
       </c>
       <c r="I16" s="7">
-        <v>62997</v>
+        <v>179530</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
-        <v>193</v>
+        <v>615</v>
       </c>
       <c r="N16" s="7">
-        <v>125952</v>
+        <v>366084</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,49 +4920,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>918</v>
+        <v>3105</v>
       </c>
       <c r="D17" s="7">
-        <v>902447</v>
+        <v>3272266</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>367</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
-        <v>1454</v>
+        <v>5014</v>
       </c>
       <c r="I17" s="7">
-        <v>1083306</v>
+        <v>3477891</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>369</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
-        <v>2372</v>
+        <v>8119</v>
       </c>
       <c r="N17" s="7">
-        <v>1985754</v>
+        <v>6750157</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>47</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,10 +4971,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3375</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458820</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5649,10 +4986,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5359</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3657421</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5664,10 +5001,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8734</v>
       </c>
       <c r="N18" s="7">
-        <v>2111706</v>
+        <v>7116241</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5680,171 +5017,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>270</v>
-      </c>
-      <c r="D19" s="7">
-        <v>198953</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="H19" s="7">
-        <v>345</v>
-      </c>
-      <c r="I19" s="7">
-        <v>199339</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="M19" s="7">
-        <v>615</v>
-      </c>
-      <c r="N19" s="7">
-        <v>398292</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3105</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3185205</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5014</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3603166</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8119</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6788370</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3375</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3384158</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5359</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3802505</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8734</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7186662</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
